--- a/predictions/single/RandomForestRegressor/Angina.xlsx
+++ b/predictions/single/RandomForestRegressor/Angina.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2778964524917862</v>
+        <v>0.2800831015679522</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9946538901961429</v>
+        <v>0.9946118239302412</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/predictions/single/RandomForestRegressor/Angina.xlsx
+++ b/predictions/single/RandomForestRegressor/Angina.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2800831015679522</v>
+        <v>0.2784594171304003</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9946118239302412</v>
+        <v>0.9946430600083276</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/predictions/single/RandomForestRegressor/Angina.xlsx
+++ b/predictions/single/RandomForestRegressor/Angina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo</t>
         </is>
       </c>
@@ -462,12 +467,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2784594171304003</v>
+        <v>0.2844791062672977</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9946430600083276</v>
-      </c>
-      <c r="D2" t="inlineStr">
+        <v>0.9945272545749643</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4311542036564542</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>single</t>
         </is>

--- a/predictions/single/RandomForestRegressor/Angina.xlsx
+++ b/predictions/single/RandomForestRegressor/Angina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Tipo</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,17 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2844791062672977</v>
+        <v>0.2817704156383548</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9945272545749643</v>
+        <v>0.9945793637595082</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4311542036564542</v>
+        <v>0.4327639265559824</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>single</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('model', RandomForestRegressor(max_depth=5))])</t>
         </is>
       </c>
     </row>

--- a/predictions/single/RandomForestRegressor/Angina.xlsx
+++ b/predictions/single/RandomForestRegressor/Angina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Modelo</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Elapsed Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2817704156383548</v>
+        <v>0.2782842357001235</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9945793637595082</v>
+        <v>0.9946464301095054</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4327639265559824</v>
+        <v>0.4312027307172418</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -489,6 +499,12 @@
         <is>
           <t>Pipeline(steps=[('model', RandomForestRegressor(max_depth=5))])</t>
         </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.125854933266722</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9890000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/single/RandomForestRegressor/Angina.xlsx
+++ b/predictions/single/RandomForestRegressor/Angina.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2782842357001235</v>
+        <v>0.2794351513812299</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9946464301095054</v>
+        <v>0.9946242890510247</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4312027307172418</v>
+        <v>0.4291963906383115</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -497,14 +497,15 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('model', RandomForestRegressor(max_depth=5))])</t>
+          <t>Pipeline(steps=[('model',
+                 RandomForestRegressor(max_depth=5, n_estimators=150))])</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.125854933266722</v>
+        <v>0.1263793038999817</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9890000000000001</v>
+        <v>0.988</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/single/RandomForestRegressor/Angina.xlsx
+++ b/predictions/single/RandomForestRegressor/Angina.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2794351513812299</v>
+        <v>0.2831691422999417</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9946242890510247</v>
+        <v>0.994552455368806</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4291963906383115</v>
+        <v>0.4309702347941847</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -497,15 +497,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('model',
-                 RandomForestRegressor(max_depth=5, n_estimators=150))])</t>
+          <t>Pipeline(steps=[('model', RandomForestRegressor(max_depth=5))])</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.1263793038999817</v>
+        <v>0.1237476138499915</v>
       </c>
       <c r="H2" t="n">
-        <v>0.988</v>
+        <v>0.992</v>
       </c>
     </row>
   </sheetData>
